--- a/test.xlsx
+++ b/test.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TeSt2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,13 +43,21 @@
   <si>
     <t>tef</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horrin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +69,12 @@
       <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -400,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -440,4 +455,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>